--- a/설비투자_web.xlsx
+++ b/설비투자_web.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Project\macro\rm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66EF11F-DC74-4859-AA3B-BBAEA7535670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A09EB33-E383-48AA-BAE8-A6E9426A7909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3AA0A4BA-E009-4839-80B2-B5FF2140F7A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{3AA0A4BA-E009-4839-80B2-B5FF2140F7A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$462</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="516">
   <si>
     <t>hj.byun1@cj.net</t>
   </si>
@@ -1589,6 +1593,15 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>contact_code</t>
+  </si>
+  <si>
+    <t>eunbit.jo@entegris.com</t>
   </si>
 </sst>
 </file>
@@ -2063,10 +2076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FABFA08-B063-40BE-A26E-2BCD72F1D807}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection sqref="A1:C462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2082,7 +2096,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickBot="1">
+    <row r="2" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>509</v>
       </c>
@@ -2091,7 +2105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" thickBot="1">
+    <row r="3" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>508</v>
       </c>
@@ -2100,7 +2114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" thickBot="1">
+    <row r="4" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>507</v>
       </c>
@@ -2109,7 +2123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.25" thickBot="1">
+    <row r="5" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>506</v>
       </c>
@@ -2118,7 +2132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.25" thickBot="1">
+    <row r="6" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>505</v>
       </c>
@@ -2127,7 +2141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.25" thickBot="1">
+    <row r="7" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>504</v>
       </c>
@@ -2136,7 +2150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.25" thickBot="1">
+    <row r="8" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>503</v>
       </c>
@@ -2145,7 +2159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.25" thickBot="1">
+    <row r="9" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>502</v>
       </c>
@@ -2154,7 +2168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.25" thickBot="1">
+    <row r="10" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>501</v>
       </c>
@@ -2163,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.25" thickBot="1">
+    <row r="11" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>500</v>
       </c>
@@ -2172,7 +2186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.25" thickBot="1">
+    <row r="12" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>499</v>
       </c>
@@ -2181,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.25" thickBot="1">
+    <row r="13" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>498</v>
       </c>
@@ -2190,7 +2204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25" thickBot="1">
+    <row r="14" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>497</v>
       </c>
@@ -2199,7 +2213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.25" thickBot="1">
+    <row r="15" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>496</v>
       </c>
@@ -2208,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.25" thickBot="1">
+    <row r="16" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>495</v>
       </c>
@@ -2228,7 +2242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="215.25" thickBot="1">
+    <row r="18" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>492</v>
       </c>
@@ -2237,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.25" thickBot="1">
+    <row r="19" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>491</v>
       </c>
@@ -2257,7 +2271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="215.25" thickBot="1">
+    <row r="21" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>488</v>
       </c>
@@ -2266,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.25" thickBot="1">
+    <row r="22" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>487</v>
       </c>
@@ -2275,7 +2289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17.25" thickBot="1">
+    <row r="23" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>486</v>
       </c>
@@ -2284,7 +2298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.25" thickBot="1">
+    <row r="24" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>485</v>
       </c>
@@ -2304,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.25" thickBot="1">
+    <row r="26" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>482</v>
       </c>
@@ -2313,7 +2327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17.25" thickBot="1">
+    <row r="27" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>481</v>
       </c>
@@ -2322,7 +2336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17.25" thickBot="1">
+    <row r="28" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>480</v>
       </c>
@@ -2331,7 +2345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17.25" thickBot="1">
+    <row r="29" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A29" s="3" t="s">
         <v>479</v>
       </c>
@@ -2340,7 +2354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.25" thickBot="1">
+    <row r="30" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>478</v>
       </c>
@@ -2349,7 +2363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.25" thickBot="1">
+    <row r="31" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A31" s="3" t="s">
         <v>477</v>
       </c>
@@ -2358,7 +2372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="215.25" thickBot="1">
+    <row r="32" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A32" s="2" t="s">
         <v>476</v>
       </c>
@@ -2378,7 +2392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="215.25" thickBot="1">
+    <row r="34" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A34" s="2" t="s">
         <v>473</v>
       </c>
@@ -2398,7 +2412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17.25" thickBot="1">
+    <row r="36" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A36" s="3" t="s">
         <v>470</v>
       </c>
@@ -2407,7 +2421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17.25" thickBot="1">
+    <row r="37" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A37" s="3" t="s">
         <v>469</v>
       </c>
@@ -2416,7 +2430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17.25" thickBot="1">
+    <row r="38" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A38" s="3" t="s">
         <v>468</v>
       </c>
@@ -2425,7 +2439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17.25" thickBot="1">
+    <row r="39" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A39" s="3" t="s">
         <v>467</v>
       </c>
@@ -2434,7 +2448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17.25" thickBot="1">
+    <row r="40" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A40" s="3" t="s">
         <v>466</v>
       </c>
@@ -2454,7 +2468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17.25" thickBot="1">
+    <row r="42" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A42" s="3" t="s">
         <v>463</v>
       </c>
@@ -2463,7 +2477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17.25" thickBot="1">
+    <row r="43" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A43" s="3" t="s">
         <v>462</v>
       </c>
@@ -2472,7 +2486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17.25" thickBot="1">
+    <row r="44" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A44" s="3" t="s">
         <v>461</v>
       </c>
@@ -2481,7 +2495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="215.25" thickBot="1">
+    <row r="45" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A45" s="2" t="s">
         <v>460</v>
       </c>
@@ -2490,7 +2504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="215.25" thickBot="1">
+    <row r="46" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A46" s="2" t="s">
         <v>459</v>
       </c>
@@ -2499,7 +2513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17.25" thickBot="1">
+    <row r="47" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A47" s="3" t="s">
         <v>458</v>
       </c>
@@ -2519,7 +2533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17.25" thickBot="1">
+    <row r="49" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A49" s="3" t="s">
         <v>455</v>
       </c>
@@ -2528,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17.25" thickBot="1">
+    <row r="50" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A50" s="3" t="s">
         <v>454</v>
       </c>
@@ -2537,7 +2551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17.25" thickBot="1">
+    <row r="51" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A51" s="3" t="s">
         <v>453</v>
       </c>
@@ -2546,7 +2560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17.25" thickBot="1">
+    <row r="52" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A52" s="3" t="s">
         <v>452</v>
       </c>
@@ -2566,7 +2580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="17.25" thickBot="1">
+    <row r="54" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A54" s="3" t="s">
         <v>449</v>
       </c>
@@ -2575,7 +2589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17.25" thickBot="1">
+    <row r="55" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A55" s="3" t="s">
         <v>448</v>
       </c>
@@ -2584,7 +2598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17.25" thickBot="1">
+    <row r="56" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A56" s="3" t="s">
         <v>447</v>
       </c>
@@ -2604,7 +2618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="17.25" thickBot="1">
+    <row r="58" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A58" s="3" t="s">
         <v>444</v>
       </c>
@@ -2613,7 +2627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17.25" thickBot="1">
+    <row r="59" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A59" s="3" t="s">
         <v>443</v>
       </c>
@@ -2622,7 +2636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17.25" thickBot="1">
+    <row r="60" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A60" s="3" t="s">
         <v>442</v>
       </c>
@@ -2631,7 +2645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="17.25" thickBot="1">
+    <row r="61" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A61" s="3" t="s">
         <v>441</v>
       </c>
@@ -2640,7 +2654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="17.25" thickBot="1">
+    <row r="62" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A62" s="3" t="s">
         <v>440</v>
       </c>
@@ -2649,7 +2663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17.25" thickBot="1">
+    <row r="63" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A63" s="3" t="s">
         <v>439</v>
       </c>
@@ -2691,7 +2705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17.25" thickBot="1">
+    <row r="67" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A67" s="3" t="s">
         <v>432</v>
       </c>
@@ -2700,7 +2714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17.25" thickBot="1">
+    <row r="68" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A68" s="3" t="s">
         <v>431</v>
       </c>
@@ -2709,7 +2723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17.25" thickBot="1">
+    <row r="69" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A69" s="3" t="s">
         <v>430</v>
       </c>
@@ -2718,7 +2732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17.25" thickBot="1">
+    <row r="70" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A70" s="3" t="s">
         <v>429</v>
       </c>
@@ -2727,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17.25" thickBot="1">
+    <row r="71" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A71" s="3" t="s">
         <v>428</v>
       </c>
@@ -2736,7 +2750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17.25" thickBot="1">
+    <row r="72" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A72" s="3" t="s">
         <v>427</v>
       </c>
@@ -2745,7 +2759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="215.25" thickBot="1">
+    <row r="73" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A73" s="2" t="s">
         <v>426</v>
       </c>
@@ -2754,7 +2768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="17.25" thickBot="1">
+    <row r="74" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A74" s="3" t="s">
         <v>425</v>
       </c>
@@ -2763,7 +2777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="215.25" thickBot="1">
+    <row r="75" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A75" s="2" t="s">
         <v>424</v>
       </c>
@@ -2772,7 +2786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="17.25" thickBot="1">
+    <row r="76" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A76" s="3" t="s">
         <v>423</v>
       </c>
@@ -2781,7 +2795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="17.25" thickBot="1">
+    <row r="77" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A77" s="3" t="s">
         <v>422</v>
       </c>
@@ -2790,7 +2804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="17.25" thickBot="1">
+    <row r="78" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A78" s="3" t="s">
         <v>421</v>
       </c>
@@ -2799,7 +2813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17.25" thickBot="1">
+    <row r="79" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A79" s="3" t="s">
         <v>420</v>
       </c>
@@ -2808,7 +2822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="215.25" thickBot="1">
+    <row r="80" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A80" s="2" t="s">
         <v>419</v>
       </c>
@@ -2828,7 +2842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="17.25" thickBot="1">
+    <row r="82" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A82" s="3" t="s">
         <v>416</v>
       </c>
@@ -2848,7 +2862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17.25" thickBot="1">
+    <row r="84" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A84" s="3" t="s">
         <v>413</v>
       </c>
@@ -2857,7 +2871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="17.25" thickBot="1">
+    <row r="85" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A85" s="3" t="s">
         <v>412</v>
       </c>
@@ -2877,7 +2891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="17.25" thickBot="1">
+    <row r="87" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A87" s="3" t="s">
         <v>409</v>
       </c>
@@ -2886,7 +2900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="17.25" thickBot="1">
+    <row r="88" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A88" s="3" t="s">
         <v>408</v>
       </c>
@@ -2895,7 +2909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25" thickBot="1">
+    <row r="89" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A89" s="3" t="s">
         <v>407</v>
       </c>
@@ -2904,7 +2918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="17.25" thickBot="1">
+    <row r="90" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A90" s="3" t="s">
         <v>406</v>
       </c>
@@ -2913,7 +2927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="17.25" thickBot="1">
+    <row r="91" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A91" s="3" t="s">
         <v>405</v>
       </c>
@@ -2922,7 +2936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="17.25" thickBot="1">
+    <row r="92" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A92" s="3" t="s">
         <v>404</v>
       </c>
@@ -2931,7 +2945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="17.25" thickBot="1">
+    <row r="93" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A93" s="3" t="s">
         <v>403</v>
       </c>
@@ -2940,7 +2954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="17.25" thickBot="1">
+    <row r="94" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A94" s="3" t="s">
         <v>402</v>
       </c>
@@ -2949,7 +2963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="17.25" thickBot="1">
+    <row r="95" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A95" s="3" t="s">
         <v>401</v>
       </c>
@@ -2958,7 +2972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="17.25" thickBot="1">
+    <row r="96" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A96" s="3" t="s">
         <v>400</v>
       </c>
@@ -2967,7 +2981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="17.25" thickBot="1">
+    <row r="97" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A97" s="3" t="s">
         <v>399</v>
       </c>
@@ -2976,7 +2990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="17.25" thickBot="1">
+    <row r="98" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A98" s="3" t="s">
         <v>398</v>
       </c>
@@ -2985,7 +2999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="17.25" thickBot="1">
+    <row r="99" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A99" s="3" t="s">
         <v>397</v>
       </c>
@@ -3005,7 +3019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="17.25" thickBot="1">
+    <row r="101" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A101" s="3" t="s">
         <v>394</v>
       </c>
@@ -3014,7 +3028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="17.25" thickBot="1">
+    <row r="102" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A102" s="3" t="s">
         <v>393</v>
       </c>
@@ -3023,7 +3037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="17.25" thickBot="1">
+    <row r="103" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A103" s="3" t="s">
         <v>392</v>
       </c>
@@ -3032,7 +3046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="17.25" thickBot="1">
+    <row r="104" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A104" s="3" t="s">
         <v>391</v>
       </c>
@@ -3041,7 +3055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="17.25" thickBot="1">
+    <row r="105" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A105" s="3" t="s">
         <v>390</v>
       </c>
@@ -3050,7 +3064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="17.25" thickBot="1">
+    <row r="106" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A106" s="3" t="s">
         <v>389</v>
       </c>
@@ -3059,7 +3073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="17.25" thickBot="1">
+    <row r="107" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A107" s="3" t="s">
         <v>388</v>
       </c>
@@ -3068,7 +3082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="17.25" thickBot="1">
+    <row r="108" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A108" s="3" t="s">
         <v>387</v>
       </c>
@@ -3077,7 +3091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="17.25" thickBot="1">
+    <row r="109" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A109" s="3" t="s">
         <v>386</v>
       </c>
@@ -3086,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="17.25" thickBot="1">
+    <row r="110" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A110" s="3" t="s">
         <v>385</v>
       </c>
@@ -3095,7 +3109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="215.25" thickBot="1">
+    <row r="111" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A111" s="2" t="s">
         <v>384</v>
       </c>
@@ -3126,7 +3140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="17.25" thickBot="1">
+    <row r="114" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A114" s="3" t="s">
         <v>379</v>
       </c>
@@ -3135,7 +3149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="17.25" thickBot="1">
+    <row r="115" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A115" s="3" t="s">
         <v>378</v>
       </c>
@@ -3155,7 +3169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="17.25" thickBot="1">
+    <row r="117" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A117" s="3" t="s">
         <v>375</v>
       </c>
@@ -3164,7 +3178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="17.25" thickBot="1">
+    <row r="118" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A118" s="3" t="s">
         <v>374</v>
       </c>
@@ -3173,7 +3187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="17.25" thickBot="1">
+    <row r="119" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A119" s="3" t="s">
         <v>373</v>
       </c>
@@ -3182,7 +3196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="17.25" thickBot="1">
+    <row r="120" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A120" s="3" t="s">
         <v>372</v>
       </c>
@@ -3191,7 +3205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="17.25" thickBot="1">
+    <row r="121" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A121" s="3" t="s">
         <v>371</v>
       </c>
@@ -3200,7 +3214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="17.25" thickBot="1">
+    <row r="122" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A122" s="3" t="s">
         <v>370</v>
       </c>
@@ -3209,7 +3223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="17.25" thickBot="1">
+    <row r="123" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A123" s="3" t="s">
         <v>369</v>
       </c>
@@ -3218,7 +3232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="17.25" thickBot="1">
+    <row r="124" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A124" s="3" t="s">
         <v>368</v>
       </c>
@@ -3227,7 +3241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="17.25" thickBot="1">
+    <row r="125" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A125" s="3" t="s">
         <v>367</v>
       </c>
@@ -3236,7 +3250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="17.25" thickBot="1">
+    <row r="126" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A126" s="3" t="s">
         <v>366</v>
       </c>
@@ -3245,7 +3259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="215.25" thickBot="1">
+    <row r="127" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A127" s="2" t="s">
         <v>365</v>
       </c>
@@ -3254,7 +3268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="17.25" thickBot="1">
+    <row r="128" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A128" s="3" t="s">
         <v>364</v>
       </c>
@@ -3263,7 +3277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="17.25" thickBot="1">
+    <row r="129" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A129" s="3" t="s">
         <v>363</v>
       </c>
@@ -3272,7 +3286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="17.25" thickBot="1">
+    <row r="130" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A130" s="3" t="s">
         <v>362</v>
       </c>
@@ -3281,7 +3295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="17.25" thickBot="1">
+    <row r="131" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A131" s="3" t="s">
         <v>361</v>
       </c>
@@ -3290,7 +3304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="17.25" thickBot="1">
+    <row r="132" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A132" s="3" t="s">
         <v>360</v>
       </c>
@@ -3299,7 +3313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="17.25" thickBot="1">
+    <row r="133" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A133" s="3" t="s">
         <v>359</v>
       </c>
@@ -3308,7 +3322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="17.25" thickBot="1">
+    <row r="134" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A134" s="3" t="s">
         <v>358</v>
       </c>
@@ -3317,7 +3331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="17.25" thickBot="1">
+    <row r="135" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A135" s="3" t="s">
         <v>357</v>
       </c>
@@ -3326,7 +3340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="17.25" thickBot="1">
+    <row r="136" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A136" s="3" t="s">
         <v>356</v>
       </c>
@@ -3335,7 +3349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="17.25" thickBot="1">
+    <row r="137" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A137" s="3" t="s">
         <v>355</v>
       </c>
@@ -3344,7 +3358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="17.25" thickBot="1">
+    <row r="138" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A138" s="3" t="s">
         <v>354</v>
       </c>
@@ -3353,7 +3367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="17.25" thickBot="1">
+    <row r="139" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A139" s="3" t="s">
         <v>353</v>
       </c>
@@ -3362,7 +3376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="17.25" thickBot="1">
+    <row r="140" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A140" s="3" t="s">
         <v>352</v>
       </c>
@@ -3371,7 +3385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="17.25" thickBot="1">
+    <row r="141" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A141" s="3" t="s">
         <v>351</v>
       </c>
@@ -3380,7 +3394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="17.25" thickBot="1">
+    <row r="142" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A142" s="3" t="s">
         <v>350</v>
       </c>
@@ -3389,7 +3403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="17.25" thickBot="1">
+    <row r="143" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A143" s="3" t="s">
         <v>349</v>
       </c>
@@ -3398,7 +3412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="17.25" thickBot="1">
+    <row r="144" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A144" s="3" t="s">
         <v>348</v>
       </c>
@@ -3407,7 +3421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="17.25" thickBot="1">
+    <row r="145" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A145" s="3" t="s">
         <v>347</v>
       </c>
@@ -3427,7 +3441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="17.25" thickBot="1">
+    <row r="147" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A147" s="3" t="s">
         <v>344</v>
       </c>
@@ -3436,7 +3450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="17.25" thickBot="1">
+    <row r="148" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A148" s="3" t="s">
         <v>343</v>
       </c>
@@ -3445,7 +3459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="17.25" thickBot="1">
+    <row r="149" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A149" s="3" t="s">
         <v>342</v>
       </c>
@@ -3454,7 +3468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="17.25" thickBot="1">
+    <row r="150" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A150" s="3" t="s">
         <v>341</v>
       </c>
@@ -3463,7 +3477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="17.25" thickBot="1">
+    <row r="151" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A151" s="3" t="s">
         <v>340</v>
       </c>
@@ -3472,7 +3486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="17.25" thickBot="1">
+    <row r="152" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A152" s="3" t="s">
         <v>339</v>
       </c>
@@ -3481,7 +3495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="215.25" thickBot="1">
+    <row r="153" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A153" s="2" t="s">
         <v>338</v>
       </c>
@@ -3490,7 +3504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="17.25" thickBot="1">
+    <row r="154" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A154" s="3" t="s">
         <v>337</v>
       </c>
@@ -3499,7 +3513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="17.25" thickBot="1">
+    <row r="155" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A155" s="3" t="s">
         <v>336</v>
       </c>
@@ -3508,7 +3522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="17.25" thickBot="1">
+    <row r="156" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A156" s="3" t="s">
         <v>335</v>
       </c>
@@ -3517,7 +3531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="17.25" thickBot="1">
+    <row r="157" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A157" s="3" t="s">
         <v>334</v>
       </c>
@@ -3526,7 +3540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="17.25" thickBot="1">
+    <row r="158" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A158" s="3" t="s">
         <v>333</v>
       </c>
@@ -3535,7 +3549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="17.25" thickBot="1">
+    <row r="159" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A159" s="3" t="s">
         <v>332</v>
       </c>
@@ -3544,7 +3558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="17.25" thickBot="1">
+    <row r="160" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A160" s="3" t="s">
         <v>331</v>
       </c>
@@ -3553,7 +3567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="215.25" thickBot="1">
+    <row r="161" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A161" s="2" t="s">
         <v>330</v>
       </c>
@@ -3562,7 +3576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="17.25" thickBot="1">
+    <row r="162" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A162" s="3" t="s">
         <v>329</v>
       </c>
@@ -3571,7 +3585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="17.25" thickBot="1">
+    <row r="163" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A163" s="3" t="s">
         <v>328</v>
       </c>
@@ -3580,7 +3594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="17.25" thickBot="1">
+    <row r="164" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A164" s="3" t="s">
         <v>327</v>
       </c>
@@ -3600,7 +3614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="17.25" thickBot="1">
+    <row r="166" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A166" s="3" t="s">
         <v>324</v>
       </c>
@@ -3609,7 +3623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="17.25" thickBot="1">
+    <row r="167" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A167" s="3" t="s">
         <v>323</v>
       </c>
@@ -3618,7 +3632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="17.25" thickBot="1">
+    <row r="168" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A168" s="3" t="s">
         <v>322</v>
       </c>
@@ -3627,7 +3641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="17.25" thickBot="1">
+    <row r="169" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A169" s="3" t="s">
         <v>321</v>
       </c>
@@ -3636,7 +3650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="17.25" thickBot="1">
+    <row r="170" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A170" s="3" t="s">
         <v>320</v>
       </c>
@@ -3645,7 +3659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="17.25" thickBot="1">
+    <row r="171" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A171" s="3" t="s">
         <v>319</v>
       </c>
@@ -3654,7 +3668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="17.25" thickBot="1">
+    <row r="172" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A172" s="3" t="s">
         <v>318</v>
       </c>
@@ -3663,7 +3677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="17.25" thickBot="1">
+    <row r="173" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A173" s="3" t="s">
         <v>317</v>
       </c>
@@ -3672,7 +3686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="17.25" thickBot="1">
+    <row r="174" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A174" s="3" t="s">
         <v>316</v>
       </c>
@@ -3681,7 +3695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="215.25" thickBot="1">
+    <row r="175" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A175" s="2" t="s">
         <v>315</v>
       </c>
@@ -3690,7 +3704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="17.25" thickBot="1">
+    <row r="176" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A176" s="3" t="s">
         <v>314</v>
       </c>
@@ -3699,7 +3713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="215.25" thickBot="1">
+    <row r="177" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A177" s="2" t="s">
         <v>313</v>
       </c>
@@ -3708,7 +3722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="17.25" thickBot="1">
+    <row r="178" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A178" s="3" t="s">
         <v>312</v>
       </c>
@@ -3717,7 +3731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="17.25" thickBot="1">
+    <row r="179" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A179" s="3" t="s">
         <v>311</v>
       </c>
@@ -3726,7 +3740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="215.25" thickBot="1">
+    <row r="180" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A180" s="2" t="s">
         <v>310</v>
       </c>
@@ -3735,7 +3749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="17.25" thickBot="1">
+    <row r="181" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A181" s="3" t="s">
         <v>309</v>
       </c>
@@ -3744,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="215.25" thickBot="1">
+    <row r="182" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A182" s="2" t="s">
         <v>308</v>
       </c>
@@ -3753,7 +3767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="17.25" thickBot="1">
+    <row r="183" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A183" s="3" t="s">
         <v>307</v>
       </c>
@@ -3773,7 +3787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="17.25" thickBot="1">
+    <row r="185" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A185" s="3" t="s">
         <v>304</v>
       </c>
@@ -3782,7 +3796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="17.25" thickBot="1">
+    <row r="186" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A186" s="3" t="s">
         <v>303</v>
       </c>
@@ -3791,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="215.25" thickBot="1">
+    <row r="187" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A187" s="2" t="s">
         <v>302</v>
       </c>
@@ -3811,7 +3825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="215.25" thickBot="1">
+    <row r="189" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A189" s="2" t="s">
         <v>299</v>
       </c>
@@ -3820,7 +3834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="17.25" thickBot="1">
+    <row r="190" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A190" s="3" t="s">
         <v>298</v>
       </c>
@@ -3829,7 +3843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="17.25" thickBot="1">
+    <row r="191" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A191" s="3" t="s">
         <v>297</v>
       </c>
@@ -3838,7 +3852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="17.25" thickBot="1">
+    <row r="192" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A192" s="3" t="s">
         <v>296</v>
       </c>
@@ -3858,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="17.25" thickBot="1">
+    <row r="194" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A194" s="3" t="s">
         <v>293</v>
       </c>
@@ -3867,7 +3881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="17.25" thickBot="1">
+    <row r="195" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A195" s="3" t="s">
         <v>292</v>
       </c>
@@ -3876,7 +3890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="215.25" thickBot="1">
+    <row r="196" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A196" s="2" t="s">
         <v>291</v>
       </c>
@@ -3896,7 +3910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="17.25" thickBot="1">
+    <row r="198" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A198" s="3" t="s">
         <v>288</v>
       </c>
@@ -3905,7 +3919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="17.25" thickBot="1">
+    <row r="199" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A199" s="3" t="s">
         <v>287</v>
       </c>
@@ -3914,7 +3928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="17.25" thickBot="1">
+    <row r="200" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A200" s="3" t="s">
         <v>286</v>
       </c>
@@ -3923,7 +3937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="17.25" thickBot="1">
+    <row r="201" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A201" s="3" t="s">
         <v>285</v>
       </c>
@@ -3932,7 +3946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="17.25" thickBot="1">
+    <row r="202" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A202" s="3" t="s">
         <v>284</v>
       </c>
@@ -3941,7 +3955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="17.25" thickBot="1">
+    <row r="203" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A203" s="3" t="s">
         <v>283</v>
       </c>
@@ -3950,7 +3964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="17.25" thickBot="1">
+    <row r="204" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A204" s="3" t="s">
         <v>282</v>
       </c>
@@ -3959,7 +3973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="17.25" thickBot="1">
+    <row r="205" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A205" s="3" t="s">
         <v>281</v>
       </c>
@@ -3968,7 +3982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="17.25" thickBot="1">
+    <row r="206" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A206" s="3" t="s">
         <v>280</v>
       </c>
@@ -3977,7 +3991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="215.25" thickBot="1">
+    <row r="207" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A207" s="2" t="s">
         <v>279</v>
       </c>
@@ -3986,7 +4000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="17.25" thickBot="1">
+    <row r="208" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A208" s="3" t="s">
         <v>278</v>
       </c>
@@ -3995,7 +4009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="17.25" thickBot="1">
+    <row r="209" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A209" s="3" t="s">
         <v>277</v>
       </c>
@@ -4026,7 +4040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="17.25" thickBot="1">
+    <row r="212" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A212" s="3" t="s">
         <v>272</v>
       </c>
@@ -4035,7 +4049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="17.25" thickBot="1">
+    <row r="213" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A213" s="3" t="s">
         <v>271</v>
       </c>
@@ -4044,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="215.25" thickBot="1">
+    <row r="214" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A214" s="2" t="s">
         <v>270</v>
       </c>
@@ -4053,7 +4067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="215.25" thickBot="1">
+    <row r="215" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A215" s="2" t="s">
         <v>269</v>
       </c>
@@ -4062,7 +4076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="17.25" thickBot="1">
+    <row r="216" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A216" s="3" t="s">
         <v>268</v>
       </c>
@@ -4071,7 +4085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="17.25" thickBot="1">
+    <row r="217" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A217" s="3" t="s">
         <v>267</v>
       </c>
@@ -4091,7 +4105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="17.25" thickBot="1">
+    <row r="219" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A219" s="3" t="s">
         <v>264</v>
       </c>
@@ -4100,7 +4114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="17.25" thickBot="1">
+    <row r="220" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A220" s="3" t="s">
         <v>263</v>
       </c>
@@ -4109,7 +4123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="17.25" thickBot="1">
+    <row r="221" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A221" s="3" t="s">
         <v>262</v>
       </c>
@@ -4118,7 +4132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="17.25" thickBot="1">
+    <row r="222" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A222" s="3" t="s">
         <v>261</v>
       </c>
@@ -4127,7 +4141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="215.25" thickBot="1">
+    <row r="223" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A223" s="2" t="s">
         <v>260</v>
       </c>
@@ -4136,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="215.25" thickBot="1">
+    <row r="224" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A224" s="2" t="s">
         <v>259</v>
       </c>
@@ -4145,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="215.25" thickBot="1">
+    <row r="225" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A225" s="2" t="s">
         <v>258</v>
       </c>
@@ -4154,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="17.25" thickBot="1">
+    <row r="226" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A226" s="3" t="s">
         <v>257</v>
       </c>
@@ -4163,7 +4177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="17.25" thickBot="1">
+    <row r="227" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A227" s="3" t="s">
         <v>256</v>
       </c>
@@ -4194,7 +4208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="215.25" thickBot="1">
+    <row r="230" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A230" s="2" t="s">
         <v>251</v>
       </c>
@@ -4203,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="17.25" thickBot="1">
+    <row r="231" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A231" s="3" t="s">
         <v>250</v>
       </c>
@@ -4212,7 +4226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="17.25" thickBot="1">
+    <row r="232" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A232" s="3" t="s">
         <v>249</v>
       </c>
@@ -4221,7 +4235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="17.25" thickBot="1">
+    <row r="233" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A233" s="3" t="s">
         <v>248</v>
       </c>
@@ -4230,7 +4244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="17.25" thickBot="1">
+    <row r="234" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A234" s="3" t="s">
         <v>247</v>
       </c>
@@ -4239,7 +4253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="17.25" thickBot="1">
+    <row r="235" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A235" s="3" t="s">
         <v>246</v>
       </c>
@@ -4248,7 +4262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="17.25" thickBot="1">
+    <row r="236" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A236" s="3" t="s">
         <v>245</v>
       </c>
@@ -4257,7 +4271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="17.25" thickBot="1">
+    <row r="237" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A237" s="3" t="s">
         <v>244</v>
       </c>
@@ -4266,7 +4280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="17.25" thickBot="1">
+    <row r="238" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A238" s="3" t="s">
         <v>243</v>
       </c>
@@ -4286,7 +4300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="17.25" thickBot="1">
+    <row r="240" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A240" s="3" t="s">
         <v>240</v>
       </c>
@@ -4295,7 +4309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="215.25" thickBot="1">
+    <row r="241" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A241" s="2" t="s">
         <v>239</v>
       </c>
@@ -4315,7 +4329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="17.25" thickBot="1">
+    <row r="243" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A243" s="3" t="s">
         <v>236</v>
       </c>
@@ -4346,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="17.25" thickBot="1">
+    <row r="246" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A246" s="3" t="s">
         <v>231</v>
       </c>
@@ -4355,7 +4369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="215.25" thickBot="1">
+    <row r="247" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A247" s="2" t="s">
         <v>230</v>
       </c>
@@ -4364,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="17.25" thickBot="1">
+    <row r="248" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A248" s="3" t="s">
         <v>229</v>
       </c>
@@ -4373,7 +4387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="17.25" thickBot="1">
+    <row r="249" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A249" s="3" t="s">
         <v>228</v>
       </c>
@@ -4382,7 +4396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="17.25" thickBot="1">
+    <row r="250" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A250" s="3" t="s">
         <v>227</v>
       </c>
@@ -4391,7 +4405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="17.25" thickBot="1">
+    <row r="251" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A251" s="3" t="s">
         <v>226</v>
       </c>
@@ -4400,7 +4414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="17.25" thickBot="1">
+    <row r="252" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A252" s="3" t="s">
         <v>225</v>
       </c>
@@ -4409,7 +4423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="17.25" thickBot="1">
+    <row r="253" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A253" s="3" t="s">
         <v>224</v>
       </c>
@@ -4418,7 +4432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="215.25" thickBot="1">
+    <row r="254" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A254" s="2" t="s">
         <v>223</v>
       </c>
@@ -4427,7 +4441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="17.25" thickBot="1">
+    <row r="255" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A255" s="3" t="s">
         <v>222</v>
       </c>
@@ -4458,7 +4472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="17.25" thickBot="1">
+    <row r="258" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A258" s="3" t="s">
         <v>217</v>
       </c>
@@ -4489,7 +4503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="17.25" thickBot="1">
+    <row r="261" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A261" s="3" t="s">
         <v>212</v>
       </c>
@@ -4498,7 +4512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="17.25" thickBot="1">
+    <row r="262" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A262" s="3" t="s">
         <v>211</v>
       </c>
@@ -4518,7 +4532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="17.25" thickBot="1">
+    <row r="264" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A264" s="3" t="s">
         <v>208</v>
       </c>
@@ -4527,7 +4541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="17.25" thickBot="1">
+    <row r="265" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A265" s="3" t="s">
         <v>207</v>
       </c>
@@ -4536,7 +4550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="215.25" thickBot="1">
+    <row r="266" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A266" s="2" t="s">
         <v>206</v>
       </c>
@@ -4545,7 +4559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="17.25" thickBot="1">
+    <row r="267" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A267" s="3" t="s">
         <v>205</v>
       </c>
@@ -4565,7 +4579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="17.25" thickBot="1">
+    <row r="269" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A269" s="3" t="s">
         <v>202</v>
       </c>
@@ -4574,7 +4588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="17.25" thickBot="1">
+    <row r="270" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A270" s="3" t="s">
         <v>201</v>
       </c>
@@ -4583,7 +4597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="17.25" thickBot="1">
+    <row r="271" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A271" s="3" t="s">
         <v>200</v>
       </c>
@@ -4592,7 +4606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="215.25" thickBot="1">
+    <row r="272" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A272" s="2" t="s">
         <v>199</v>
       </c>
@@ -4601,7 +4615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="17.25" thickBot="1">
+    <row r="273" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A273" s="3" t="s">
         <v>198</v>
       </c>
@@ -4610,7 +4624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="215.25" thickBot="1">
+    <row r="274" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A274" s="2" t="s">
         <v>197</v>
       </c>
@@ -4619,7 +4633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="17.25" thickBot="1">
+    <row r="275" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A275" s="3" t="s">
         <v>196</v>
       </c>
@@ -4628,7 +4642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="17.25" thickBot="1">
+    <row r="276" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A276" s="3" t="s">
         <v>195</v>
       </c>
@@ -4637,7 +4651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="17.25" thickBot="1">
+    <row r="277" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A277" s="3" t="s">
         <v>194</v>
       </c>
@@ -4657,7 +4671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="17.25" thickBot="1">
+    <row r="279" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A279" s="3" t="s">
         <v>191</v>
       </c>
@@ -4666,7 +4680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="215.25" thickBot="1">
+    <row r="280" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A280" s="2" t="s">
         <v>190</v>
       </c>
@@ -4675,7 +4689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="17.25" thickBot="1">
+    <row r="281" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A281" s="3" t="s">
         <v>189</v>
       </c>
@@ -4684,7 +4698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="17.25" thickBot="1">
+    <row r="282" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A282" s="3" t="s">
         <v>188</v>
       </c>
@@ -4693,7 +4707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="215.25" thickBot="1">
+    <row r="283" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A283" s="2" t="s">
         <v>187</v>
       </c>
@@ -4702,7 +4716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="17.25" thickBot="1">
+    <row r="284" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A284" s="3" t="s">
         <v>186</v>
       </c>
@@ -4711,7 +4725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="17.25" thickBot="1">
+    <row r="285" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A285" s="3" t="s">
         <v>185</v>
       </c>
@@ -4720,7 +4734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="17.25" thickBot="1">
+    <row r="286" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A286" s="3" t="s">
         <v>184</v>
       </c>
@@ -4729,7 +4743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="17.25" thickBot="1">
+    <row r="287" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A287" s="3" t="s">
         <v>183</v>
       </c>
@@ -4738,7 +4752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="17.25" thickBot="1">
+    <row r="288" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A288" s="3" t="s">
         <v>182</v>
       </c>
@@ -4747,7 +4761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="17.25" thickBot="1">
+    <row r="289" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A289" s="3" t="s">
         <v>181</v>
       </c>
@@ -4756,7 +4770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="17.25" thickBot="1">
+    <row r="290" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A290" s="3" t="s">
         <v>180</v>
       </c>
@@ -4765,7 +4779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="17.25" thickBot="1">
+    <row r="291" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A291" s="3" t="s">
         <v>179</v>
       </c>
@@ -4774,7 +4788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="17.25" thickBot="1">
+    <row r="292" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A292" s="3" t="s">
         <v>178</v>
       </c>
@@ -4794,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="17.25" thickBot="1">
+    <row r="294" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A294" s="3" t="s">
         <v>175</v>
       </c>
@@ -4803,7 +4817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="17.25" thickBot="1">
+    <row r="295" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A295" s="3" t="s">
         <v>174</v>
       </c>
@@ -4823,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="215.25" thickBot="1">
+    <row r="297" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A297" s="2" t="s">
         <v>171</v>
       </c>
@@ -4832,7 +4846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="215.25" thickBot="1">
+    <row r="298" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A298" s="2" t="s">
         <v>170</v>
       </c>
@@ -4852,7 +4866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="17.25" thickBot="1">
+    <row r="300" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A300" s="3" t="s">
         <v>167</v>
       </c>
@@ -4872,7 +4886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="17.25" thickBot="1">
+    <row r="302" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A302" s="3" t="s">
         <v>164</v>
       </c>
@@ -4881,7 +4895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="17.25" thickBot="1">
+    <row r="303" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A303" s="3" t="s">
         <v>163</v>
       </c>
@@ -4890,7 +4904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="17.25" thickBot="1">
+    <row r="304" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A304" s="3" t="s">
         <v>162</v>
       </c>
@@ -4899,7 +4913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="17.25" thickBot="1">
+    <row r="305" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A305" s="3" t="s">
         <v>161</v>
       </c>
@@ -4908,7 +4922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="17.25" thickBot="1">
+    <row r="306" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A306" s="3" t="s">
         <v>160</v>
       </c>
@@ -4917,7 +4931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="17.25" thickBot="1">
+    <row r="307" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A307" s="3" t="s">
         <v>159</v>
       </c>
@@ -4926,7 +4940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="17.25" thickBot="1">
+    <row r="308" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A308" s="3" t="s">
         <v>158</v>
       </c>
@@ -4935,7 +4949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="17.25" thickBot="1">
+    <row r="309" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A309" s="3" t="s">
         <v>157</v>
       </c>
@@ -4944,7 +4958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="215.25" thickBot="1">
+    <row r="310" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A310" s="2" t="s">
         <v>156</v>
       </c>
@@ -4953,7 +4967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="17.25" thickBot="1">
+    <row r="311" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A311" s="3" t="s">
         <v>155</v>
       </c>
@@ -4962,7 +4976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="17.25" thickBot="1">
+    <row r="312" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A312" s="3" t="s">
         <v>154</v>
       </c>
@@ -4971,7 +4985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="17.25" thickBot="1">
+    <row r="313" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A313" s="3" t="s">
         <v>153</v>
       </c>
@@ -4980,7 +4994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="17.25" thickBot="1">
+    <row r="314" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A314" s="3" t="s">
         <v>152</v>
       </c>
@@ -5000,7 +5014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="17.25" thickBot="1">
+    <row r="316" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A316" s="3" t="s">
         <v>149</v>
       </c>
@@ -5009,7 +5023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="215.25" thickBot="1">
+    <row r="317" spans="1:3" ht="215.25" hidden="1" thickBot="1">
       <c r="A317" s="2" t="s">
         <v>148</v>
       </c>
@@ -5018,7 +5032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="231.75" thickBot="1">
+    <row r="318" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A318" s="2" t="s">
         <v>147</v>
       </c>
@@ -5027,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="17.25" thickBot="1">
+    <row r="319" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A319" s="3" t="s">
         <v>146</v>
       </c>
@@ -5036,7 +5050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="17.25" thickBot="1">
+    <row r="320" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A320" s="3" t="s">
         <v>145</v>
       </c>
@@ -5045,7 +5059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="17.25" thickBot="1">
+    <row r="321" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A321" s="3" t="s">
         <v>144</v>
       </c>
@@ -5054,7 +5068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="17.25" thickBot="1">
+    <row r="322" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A322" s="3" t="s">
         <v>143</v>
       </c>
@@ -5063,7 +5077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="17.25" thickBot="1">
+    <row r="323" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A323" s="3" t="s">
         <v>142</v>
       </c>
@@ -5072,7 +5086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="17.25" thickBot="1">
+    <row r="324" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A324" s="3" t="s">
         <v>141</v>
       </c>
@@ -5081,7 +5095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="17.25" thickBot="1">
+    <row r="325" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A325" s="3" t="s">
         <v>140</v>
       </c>
@@ -5090,7 +5104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="17.25" thickBot="1">
+    <row r="326" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A326" s="3" t="s">
         <v>139</v>
       </c>
@@ -5099,7 +5113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="231.75" thickBot="1">
+    <row r="327" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A327" s="2" t="s">
         <v>138</v>
       </c>
@@ -5108,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="231.75" thickBot="1">
+    <row r="328" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A328" s="2" t="s">
         <v>137</v>
       </c>
@@ -5117,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="17.25" thickBot="1">
+    <row r="329" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A329" s="3" t="s">
         <v>136</v>
       </c>
@@ -5126,7 +5140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="17.25" thickBot="1">
+    <row r="330" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A330" s="3" t="s">
         <v>135</v>
       </c>
@@ -5135,7 +5149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="231.75" thickBot="1">
+    <row r="331" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A331" s="2" t="s">
         <v>134</v>
       </c>
@@ -5144,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="231.75" thickBot="1">
+    <row r="332" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A332" s="2" t="s">
         <v>133</v>
       </c>
@@ -5153,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="231.75" thickBot="1">
+    <row r="333" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A333" s="2" t="s">
         <v>132</v>
       </c>
@@ -5162,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="17.25" thickBot="1">
+    <row r="334" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A334" s="3" t="s">
         <v>131</v>
       </c>
@@ -5171,7 +5185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="17.25" thickBot="1">
+    <row r="335" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A335" s="3" t="s">
         <v>130</v>
       </c>
@@ -5180,7 +5194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="17.25" thickBot="1">
+    <row r="336" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A336" s="3" t="s">
         <v>129</v>
       </c>
@@ -5189,7 +5203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="17.25" thickBot="1">
+    <row r="337" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A337" s="3" t="s">
         <v>128</v>
       </c>
@@ -5198,7 +5212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="231.75" thickBot="1">
+    <row r="338" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A338" s="2" t="s">
         <v>127</v>
       </c>
@@ -5207,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="231.75" thickBot="1">
+    <row r="339" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A339" s="2" t="s">
         <v>126</v>
       </c>
@@ -5216,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="231.75" thickBot="1">
+    <row r="340" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A340" s="2" t="s">
         <v>125</v>
       </c>
@@ -5225,7 +5239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="17.25" thickBot="1">
+    <row r="341" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A341" s="3" t="s">
         <v>124</v>
       </c>
@@ -5234,7 +5248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="17.25" thickBot="1">
+    <row r="342" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A342" s="3" t="s">
         <v>123</v>
       </c>
@@ -5243,7 +5257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="231.75" thickBot="1">
+    <row r="343" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A343" s="2" t="s">
         <v>122</v>
       </c>
@@ -5252,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="17.25" thickBot="1">
+    <row r="344" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A344" s="3" t="s">
         <v>121</v>
       </c>
@@ -5261,7 +5275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="231.75" thickBot="1">
+    <row r="345" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A345" s="2" t="s">
         <v>120</v>
       </c>
@@ -5270,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="17.25" thickBot="1">
+    <row r="346" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A346" s="3" t="s">
         <v>119</v>
       </c>
@@ -5279,7 +5293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="17.25" thickBot="1">
+    <row r="347" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A347" s="3" t="s">
         <v>118</v>
       </c>
@@ -5288,7 +5302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="17.25" thickBot="1">
+    <row r="348" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A348" s="3" t="s">
         <v>117</v>
       </c>
@@ -5297,7 +5311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="231.75" thickBot="1">
+    <row r="349" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A349" s="2" t="s">
         <v>116</v>
       </c>
@@ -5306,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="17.25" thickBot="1">
+    <row r="350" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A350" s="3" t="s">
         <v>115</v>
       </c>
@@ -5315,7 +5329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="231.75" thickBot="1">
+    <row r="351" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A351" s="2" t="s">
         <v>114</v>
       </c>
@@ -5324,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="231.75" thickBot="1">
+    <row r="352" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A352" s="2" t="s">
         <v>113</v>
       </c>
@@ -5333,7 +5347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="231.75" thickBot="1">
+    <row r="353" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A353" s="2" t="s">
         <v>112</v>
       </c>
@@ -5342,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="231.75" thickBot="1">
+    <row r="354" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A354" s="2" t="s">
         <v>111</v>
       </c>
@@ -5351,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="17.25" thickBot="1">
+    <row r="355" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A355" s="3" t="s">
         <v>110</v>
       </c>
@@ -5360,7 +5374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="17.25" thickBot="1">
+    <row r="356" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A356" s="3" t="s">
         <v>109</v>
       </c>
@@ -5369,7 +5383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="17.25" thickBot="1">
+    <row r="357" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A357" s="3" t="s">
         <v>108</v>
       </c>
@@ -5378,7 +5392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="231.75" thickBot="1">
+    <row r="358" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A358" s="2" t="s">
         <v>107</v>
       </c>
@@ -5387,7 +5401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="231.75" thickBot="1">
+    <row r="359" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A359" s="2" t="s">
         <v>106</v>
       </c>
@@ -5396,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="17.25" thickBot="1">
+    <row r="360" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A360" s="3" t="s">
         <v>105</v>
       </c>
@@ -5405,7 +5419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="231.75" thickBot="1">
+    <row r="361" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A361" s="2" t="s">
         <v>104</v>
       </c>
@@ -5414,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="231.75" thickBot="1">
+    <row r="362" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A362" s="2" t="s">
         <v>103</v>
       </c>
@@ -5434,7 +5448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="231.75" thickBot="1">
+    <row r="364" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A364" s="2" t="s">
         <v>100</v>
       </c>
@@ -5443,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="17.25" thickBot="1">
+    <row r="365" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A365" s="3" t="s">
         <v>99</v>
       </c>
@@ -5452,7 +5466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="17.25" thickBot="1">
+    <row r="366" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A366" s="3" t="s">
         <v>98</v>
       </c>
@@ -5461,7 +5475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="231.75" thickBot="1">
+    <row r="367" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A367" s="2" t="s">
         <v>97</v>
       </c>
@@ -5470,7 +5484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="231.75" thickBot="1">
+    <row r="368" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A368" s="2" t="s">
         <v>96</v>
       </c>
@@ -5479,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="231.75" thickBot="1">
+    <row r="369" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A369" s="2" t="s">
         <v>95</v>
       </c>
@@ -5488,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="231.75" thickBot="1">
+    <row r="370" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A370" s="2" t="s">
         <v>94</v>
       </c>
@@ -5497,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="231.75" thickBot="1">
+    <row r="371" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A371" s="2" t="s">
         <v>93</v>
       </c>
@@ -5506,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="231.75" thickBot="1">
+    <row r="372" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A372" s="2" t="s">
         <v>92</v>
       </c>
@@ -5515,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="17.25" thickBot="1">
+    <row r="373" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A373" s="3" t="s">
         <v>91</v>
       </c>
@@ -5524,7 +5538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="231.75" thickBot="1">
+    <row r="374" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A374" s="2" t="s">
         <v>90</v>
       </c>
@@ -5533,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="17.25" thickBot="1">
+    <row r="375" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A375" s="3" t="s">
         <v>89</v>
       </c>
@@ -5542,7 +5556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="17.25" thickBot="1">
+    <row r="376" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A376" s="3" t="s">
         <v>88</v>
       </c>
@@ -5551,7 +5565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="17.25" thickBot="1">
+    <row r="377" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A377" s="3" t="s">
         <v>87</v>
       </c>
@@ -5560,7 +5574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="231.75" thickBot="1">
+    <row r="378" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A378" s="2" t="s">
         <v>86</v>
       </c>
@@ -5569,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="231.75" thickBot="1">
+    <row r="379" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A379" s="2" t="s">
         <v>85</v>
       </c>
@@ -5578,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="17.25" thickBot="1">
+    <row r="380" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A380" s="3" t="s">
         <v>84</v>
       </c>
@@ -5587,7 +5601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="231.75" thickBot="1">
+    <row r="381" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A381" s="2" t="s">
         <v>83</v>
       </c>
@@ -5596,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="17.25" thickBot="1">
+    <row r="382" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A382" s="3" t="s">
         <v>82</v>
       </c>
@@ -5605,7 +5619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="231.75" thickBot="1">
+    <row r="383" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A383" s="2" t="s">
         <v>81</v>
       </c>
@@ -5614,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="231.75" thickBot="1">
+    <row r="384" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A384" s="2" t="s">
         <v>80</v>
       </c>
@@ -5623,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="17.25" thickBot="1">
+    <row r="385" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A385" s="3" t="s">
         <v>79</v>
       </c>
@@ -5632,7 +5646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="17.25" thickBot="1">
+    <row r="386" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A386" s="3" t="s">
         <v>78</v>
       </c>
@@ -5641,7 +5655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="231.75" thickBot="1">
+    <row r="387" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A387" s="2" t="s">
         <v>77</v>
       </c>
@@ -5650,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="231.75" thickBot="1">
+    <row r="388" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A388" s="2" t="s">
         <v>76</v>
       </c>
@@ -5659,7 +5673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="231.75" thickBot="1">
+    <row r="389" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A389" s="2" t="s">
         <v>75</v>
       </c>
@@ -5668,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="17.25" thickBot="1">
+    <row r="390" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A390" s="3" t="s">
         <v>74</v>
       </c>
@@ -5677,7 +5691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="17.25" thickBot="1">
+    <row r="391" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A391" s="3" t="s">
         <v>73</v>
       </c>
@@ -5686,7 +5700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="231.75" thickBot="1">
+    <row r="392" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A392" s="2" t="s">
         <v>72</v>
       </c>
@@ -5695,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="231.75" thickBot="1">
+    <row r="393" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A393" s="2" t="s">
         <v>71</v>
       </c>
@@ -5704,7 +5718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="231.75" thickBot="1">
+    <row r="394" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A394" s="2" t="s">
         <v>70</v>
       </c>
@@ -5713,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="17.25" thickBot="1">
+    <row r="395" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A395" s="3" t="s">
         <v>69</v>
       </c>
@@ -5722,7 +5736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="231.75" thickBot="1">
+    <row r="396" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A396" s="2" t="s">
         <v>68</v>
       </c>
@@ -5731,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="231.75" thickBot="1">
+    <row r="397" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A397" s="2" t="s">
         <v>67</v>
       </c>
@@ -5740,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="17.25" thickBot="1">
+    <row r="398" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A398" s="3" t="s">
         <v>66</v>
       </c>
@@ -5749,7 +5763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="231.75" thickBot="1">
+    <row r="399" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A399" s="2" t="s">
         <v>65</v>
       </c>
@@ -5758,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="17.25" thickBot="1">
+    <row r="400" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A400" s="3" t="s">
         <v>64</v>
       </c>
@@ -5767,7 +5781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="17.25" thickBot="1">
+    <row r="401" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A401" s="3" t="s">
         <v>63</v>
       </c>
@@ -5776,7 +5790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="231.75" thickBot="1">
+    <row r="402" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A402" s="2" t="s">
         <v>62</v>
       </c>
@@ -5785,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="17.25" thickBot="1">
+    <row r="403" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A403" s="3" t="s">
         <v>61</v>
       </c>
@@ -5794,7 +5808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="231.75" thickBot="1">
+    <row r="404" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A404" s="2" t="s">
         <v>60</v>
       </c>
@@ -5803,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="231.75" thickBot="1">
+    <row r="405" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A405" s="2" t="s">
         <v>59</v>
       </c>
@@ -5812,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="17.25" thickBot="1">
+    <row r="406" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A406" s="3" t="s">
         <v>58</v>
       </c>
@@ -5821,7 +5835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="231.75" thickBot="1">
+    <row r="407" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A407" s="2" t="s">
         <v>57</v>
       </c>
@@ -5830,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="17.25" thickBot="1">
+    <row r="408" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A408" s="3" t="s">
         <v>56</v>
       </c>
@@ -5839,7 +5853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="231.75" thickBot="1">
+    <row r="409" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A409" s="2" t="s">
         <v>55</v>
       </c>
@@ -5848,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="231.75" thickBot="1">
+    <row r="410" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A410" s="2" t="s">
         <v>54</v>
       </c>
@@ -5857,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="17.25" thickBot="1">
+    <row r="411" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A411" s="3" t="s">
         <v>53</v>
       </c>
@@ -5866,7 +5880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="17.25" thickBot="1">
+    <row r="412" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A412" s="3" t="s">
         <v>52</v>
       </c>
@@ -5875,7 +5889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="231.75" thickBot="1">
+    <row r="413" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A413" s="2" t="s">
         <v>51</v>
       </c>
@@ -5884,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="17.25" thickBot="1">
+    <row r="414" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A414" s="3" t="s">
         <v>50</v>
       </c>
@@ -5893,7 +5907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="17.25" thickBot="1">
+    <row r="415" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A415" s="3" t="s">
         <v>49</v>
       </c>
@@ -5902,7 +5916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="17.25" thickBot="1">
+    <row r="416" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A416" s="3" t="s">
         <v>48</v>
       </c>
@@ -5911,7 +5925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="17.25" thickBot="1">
+    <row r="417" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A417" s="3" t="s">
         <v>47</v>
       </c>
@@ -5920,7 +5934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="231.75" thickBot="1">
+    <row r="418" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A418" s="2" t="s">
         <v>46</v>
       </c>
@@ -5929,7 +5943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="17.25" thickBot="1">
+    <row r="419" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A419" s="3" t="s">
         <v>45</v>
       </c>
@@ -5938,7 +5952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="17.25" thickBot="1">
+    <row r="420" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A420" s="3" t="s">
         <v>44</v>
       </c>
@@ -5947,7 +5961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="17.25" thickBot="1">
+    <row r="421" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A421" s="3" t="s">
         <v>43</v>
       </c>
@@ -5956,7 +5970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="17.25" thickBot="1">
+    <row r="422" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A422" s="3" t="s">
         <v>42</v>
       </c>
@@ -5965,7 +5979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="17.25" thickBot="1">
+    <row r="423" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A423" s="3" t="s">
         <v>41</v>
       </c>
@@ -5985,7 +5999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="231.75" thickBot="1">
+    <row r="425" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A425" s="2" t="s">
         <v>38</v>
       </c>
@@ -5994,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="231.75" thickBot="1">
+    <row r="426" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A426" s="2" t="s">
         <v>37</v>
       </c>
@@ -6003,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="17.25" thickBot="1">
+    <row r="427" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A427" s="3" t="s">
         <v>36</v>
       </c>
@@ -6012,7 +6026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="17.25" thickBot="1">
+    <row r="428" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A428" s="3" t="s">
         <v>35</v>
       </c>
@@ -6021,7 +6035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="17.25" thickBot="1">
+    <row r="429" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A429" s="3" t="s">
         <v>34</v>
       </c>
@@ -6030,7 +6044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="231.75" thickBot="1">
+    <row r="430" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A430" s="2" t="s">
         <v>33</v>
       </c>
@@ -6039,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="17.25" thickBot="1">
+    <row r="431" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A431" s="3" t="s">
         <v>32</v>
       </c>
@@ -6048,7 +6062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="231.75" thickBot="1">
+    <row r="432" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A432" s="2" t="s">
         <v>31</v>
       </c>
@@ -6057,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="231.75" thickBot="1">
+    <row r="433" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A433" s="2" t="s">
         <v>30</v>
       </c>
@@ -6066,7 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="231.75" thickBot="1">
+    <row r="434" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A434" s="2" t="s">
         <v>29</v>
       </c>
@@ -6075,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="231.75" thickBot="1">
+    <row r="435" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A435" s="2" t="s">
         <v>28</v>
       </c>
@@ -6084,7 +6098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="17.25" thickBot="1">
+    <row r="436" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A436" s="3" t="s">
         <v>27</v>
       </c>
@@ -6093,7 +6107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="17.25" thickBot="1">
+    <row r="437" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A437" s="3" t="s">
         <v>26</v>
       </c>
@@ -6102,7 +6116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="231.75" thickBot="1">
+    <row r="438" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A438" s="2" t="s">
         <v>25</v>
       </c>
@@ -6111,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="17.25" thickBot="1">
+    <row r="439" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A439" s="3" t="s">
         <v>24</v>
       </c>
@@ -6120,7 +6134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="17.25" thickBot="1">
+    <row r="440" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A440" s="3" t="s">
         <v>23</v>
       </c>
@@ -6129,7 +6143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="17.25" thickBot="1">
+    <row r="441" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A441" s="3" t="s">
         <v>22</v>
       </c>
@@ -6138,7 +6152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="17.25" thickBot="1">
+    <row r="442" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A442" s="3" t="s">
         <v>21</v>
       </c>
@@ -6147,7 +6161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="17.25" thickBot="1">
+    <row r="443" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A443" s="3" t="s">
         <v>20</v>
       </c>
@@ -6156,7 +6170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="17.25" thickBot="1">
+    <row r="444" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A444" s="3" t="s">
         <v>19</v>
       </c>
@@ -6165,7 +6179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="17.25" thickBot="1">
+    <row r="445" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A445" s="3" t="s">
         <v>18</v>
       </c>
@@ -6174,7 +6188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="17.25" thickBot="1">
+    <row r="446" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A446" s="3" t="s">
         <v>17</v>
       </c>
@@ -6183,7 +6197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="17.25" thickBot="1">
+    <row r="447" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A447" s="3" t="s">
         <v>16</v>
       </c>
@@ -6192,7 +6206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="17.25" thickBot="1">
+    <row r="448" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A448" s="3" t="s">
         <v>15</v>
       </c>
@@ -6201,7 +6215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="17.25" thickBot="1">
+    <row r="449" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A449" s="3" t="s">
         <v>14</v>
       </c>
@@ -6210,7 +6224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="17.25" thickBot="1">
+    <row r="450" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A450" s="3" t="s">
         <v>13</v>
       </c>
@@ -6219,7 +6233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="231.75" thickBot="1">
+    <row r="451" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A451" s="2" t="s">
         <v>12</v>
       </c>
@@ -6228,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="231.75" thickBot="1">
+    <row r="452" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A452" s="2" t="s">
         <v>11</v>
       </c>
@@ -6237,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="17.25" thickBot="1">
+    <row r="453" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A453" s="3" t="s">
         <v>10</v>
       </c>
@@ -6246,7 +6260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="17.25" thickBot="1">
+    <row r="454" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A454" s="3" t="s">
         <v>9</v>
       </c>
@@ -6255,7 +6269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="231.75" thickBot="1">
+    <row r="455" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A455" s="2" t="s">
         <v>8</v>
       </c>
@@ -6264,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="231.75" thickBot="1">
+    <row r="456" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A456" s="2" t="s">
         <v>7</v>
       </c>
@@ -6273,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="17.25" thickBot="1">
+    <row r="457" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A457" s="3" t="s">
         <v>6</v>
       </c>
@@ -6282,7 +6296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="17.25" thickBot="1">
+    <row r="458" spans="1:3" ht="17.25" hidden="1" thickBot="1">
       <c r="A458" s="3" t="s">
         <v>5</v>
       </c>
@@ -6291,7 +6305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="231.75" thickBot="1">
+    <row r="459" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A459" s="2" t="s">
         <v>4</v>
       </c>
@@ -6300,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="231.75" thickBot="1">
+    <row r="460" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A460" s="2" t="s">
         <v>3</v>
       </c>
@@ -6309,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="231.75" thickBot="1">
+    <row r="461" spans="1:3" ht="231.75" hidden="1" thickBot="1">
       <c r="A461" s="2" t="s">
         <v>2</v>
       </c>
@@ -6330,6 +6344,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C462" xr:uid="{4FABFA08-B063-40BE-A26E-2BCD72F1D807}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="noback" display="https://rnr.surveybox.kr/sp7/S16269h8ufyh/mexec.asp?searchtarget=0&amp;midx=33958&amp;resid=2212&amp;exectype=edit - noback" xr:uid="{A4400AF1-2EDA-4304-A2BF-97CDEA96FCA0}"/>
@@ -6798,4 +6819,570 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EFDA7F-7C1D-4EA5-9058-8958047D7E0A}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>396</v>
+      </c>
+      <c r="B17" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>381</v>
+      </c>
+      <c r="B19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23" t="s">
+        <v>305</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>